--- a/data/trans_orig/P23_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P23_R-Habitat-trans_orig.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77A1E49E-0018-4F1B-9916-7E1BD71FB0FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCB8BF32-636F-4B91-95CE-0DA7E9E40967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{66C6AD2B-BE55-4E42-A74F-AEE610B1A701}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{70A56600-4361-4AFA-9189-8FEF5F4DAD9E}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
-    <sheet name="2023" sheetId="3" r:id="rId2"/>
+    <sheet name="2007" sheetId="2" r:id="rId1"/>
+    <sheet name="2012" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="231">
-  <si>
-    <t>Población que fuma diariamente en 2015 (Tasa respuesta: 99,89%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="229">
+  <si>
+    <t>Población que fuma diariamente en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -72,61 +72,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>59,7%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>63,79%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
-  </si>
-  <si>
-    <t>59,75%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
+    <t>59,63%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>70,51%</t>
+  </si>
+  <si>
+    <t>64,26%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
   </si>
   <si>
     <t>100%</t>
@@ -135,601 +135,595 @@
     <t>2/10</t>
   </si>
   <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>57,04%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>61,23%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>71,45%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
   </si>
   <si>
     <t>25,55%</t>
   </si>
   <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>66,74%</t>
-  </si>
-  <si>
-    <t>62,64%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>71,95%</t>
-  </si>
-  <si>
-    <t>69,09%</t>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
   </si>
   <si>
     <t>74,45%</t>
   </si>
   <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>72,66%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>73,32%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>69,55%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que fuma diariamente en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>65,04%</t>
+  </si>
+  <si>
+    <t>69,25%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
   </si>
   <si>
     <t>32,14%</t>
   </si>
   <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>74,13%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
   </si>
   <si>
     <t>67,86%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que fuma diariamente en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
   </si>
 </sst>
 </file>
@@ -1141,7 +1135,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1574AEC9-E5D3-4177-95A4-C3DE6F49E3C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F0567B-5A93-4282-89AF-C343B423CAA2}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1262,7 +1256,7 @@
         <v>43</v>
       </c>
       <c r="D4" s="7">
-        <v>46968</v>
+        <v>46571</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1274,10 +1268,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I4" s="7">
-        <v>30936</v>
+        <v>20698</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1289,10 +1283,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="N4" s="7">
-        <v>77905</v>
+        <v>67269</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1310,10 +1304,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D5" s="7">
-        <v>69578</v>
+        <v>68787</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1325,10 +1319,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="I5" s="7">
-        <v>82424</v>
+        <v>92057</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1340,10 +1334,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="N5" s="7">
-        <v>152001</v>
+        <v>160844</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1361,10 +1355,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>115358</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1376,10 +1370,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>112755</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1391,10 +1385,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>228113</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1414,10 +1408,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>177</v>
+        <v>267</v>
       </c>
       <c r="D7" s="7">
-        <v>185681</v>
+        <v>272710</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1429,10 +1423,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="I7" s="7">
-        <v>127575</v>
+        <v>141101</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1444,10 +1438,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>303</v>
+        <v>406</v>
       </c>
       <c r="N7" s="7">
-        <v>313257</v>
+        <v>413811</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1465,10 +1459,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>362</v>
+        <v>311</v>
       </c>
       <c r="D8" s="7">
-        <v>372573</v>
+        <v>305944</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1480,10 +1474,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="I8" s="7">
-        <v>430795</v>
+        <v>434495</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1495,10 +1489,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>786</v>
+        <v>740</v>
       </c>
       <c r="N8" s="7">
-        <v>803367</v>
+        <v>740439</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1516,10 +1510,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>578</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>578654</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1531,10 +1525,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>550</v>
+        <v>568</v>
       </c>
       <c r="I9" s="7">
-        <v>558370</v>
+        <v>575596</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1546,10 +1540,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1089</v>
+        <v>1146</v>
       </c>
       <c r="N9" s="7">
-        <v>1116624</v>
+        <v>1154250</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1569,10 +1563,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>281</v>
+        <v>378</v>
       </c>
       <c r="D10" s="7">
-        <v>309110</v>
+        <v>406281</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1584,10 +1578,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="I10" s="7">
-        <v>248231</v>
+        <v>227136</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1599,10 +1593,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>520</v>
+        <v>593</v>
       </c>
       <c r="N10" s="7">
-        <v>557342</v>
+        <v>633416</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1620,10 +1614,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>669</v>
+        <v>517</v>
       </c>
       <c r="D11" s="7">
-        <v>712249</v>
+        <v>554477</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1635,10 +1629,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>737</v>
+        <v>693</v>
       </c>
       <c r="I11" s="7">
-        <v>793754</v>
+        <v>741257</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1650,10 +1644,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1406</v>
+        <v>1210</v>
       </c>
       <c r="N11" s="7">
-        <v>1506002</v>
+        <v>1295735</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1671,10 +1665,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>950</v>
+        <v>895</v>
       </c>
       <c r="D12" s="7">
-        <v>1021359</v>
+        <v>960758</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1686,10 +1680,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>976</v>
+        <v>908</v>
       </c>
       <c r="I12" s="7">
-        <v>1041985</v>
+        <v>968393</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1701,10 +1695,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1926</v>
+        <v>1803</v>
       </c>
       <c r="N12" s="7">
-        <v>2063344</v>
+        <v>1929151</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1724,10 +1718,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="D13" s="7">
-        <v>292014</v>
+        <v>253975</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1739,10 +1733,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="I13" s="7">
-        <v>207664</v>
+        <v>170001</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1754,10 +1748,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>461</v>
+        <v>414</v>
       </c>
       <c r="N13" s="7">
-        <v>499678</v>
+        <v>423976</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1775,10 +1769,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>435</v>
+        <v>403</v>
       </c>
       <c r="D14" s="7">
-        <v>466674</v>
+        <v>424534</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1790,10 +1784,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="I14" s="7">
-        <v>575231</v>
+        <v>513840</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1805,10 +1799,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>968</v>
+        <v>923</v>
       </c>
       <c r="N14" s="7">
-        <v>1041904</v>
+        <v>938374</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1826,10 +1820,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>695</v>
+        <v>641</v>
       </c>
       <c r="D15" s="7">
-        <v>758688</v>
+        <v>678509</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1841,10 +1835,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>734</v>
+        <v>696</v>
       </c>
       <c r="I15" s="7">
-        <v>782895</v>
+        <v>683841</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1856,10 +1850,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1429</v>
+        <v>1337</v>
       </c>
       <c r="N15" s="7">
-        <v>1541582</v>
+        <v>1362350</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1879,10 +1873,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>252</v>
+        <v>423</v>
       </c>
       <c r="D16" s="7">
-        <v>256618</v>
+        <v>405745</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -1894,10 +1888,10 @@
         <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>224</v>
+        <v>292</v>
       </c>
       <c r="I16" s="7">
-        <v>233168</v>
+        <v>304394</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -1909,19 +1903,19 @@
         <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>476</v>
+        <v>715</v>
       </c>
       <c r="N16" s="7">
-        <v>489786</v>
+        <v>710139</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1930,49 +1924,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>680</v>
+        <v>571</v>
       </c>
       <c r="D17" s="7">
-        <v>680949</v>
+        <v>536477</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>705</v>
+      </c>
+      <c r="I17" s="7">
+        <v>734218</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>734</v>
-      </c>
-      <c r="I17" s="7">
-        <v>809325</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>1276</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1270695</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="7">
-        <v>1414</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1490274</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1981,10 +1975,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>932</v>
+        <v>994</v>
       </c>
       <c r="D18" s="7">
-        <v>937567</v>
+        <v>942222</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1996,10 +1990,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>958</v>
+        <v>997</v>
       </c>
       <c r="I18" s="7">
-        <v>1042493</v>
+        <v>1038612</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2011,10 +2005,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1890</v>
+        <v>1991</v>
       </c>
       <c r="N18" s="7">
-        <v>1980060</v>
+        <v>1980834</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2034,49 +2028,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1013</v>
+        <v>1349</v>
       </c>
       <c r="D19" s="7">
-        <v>1090392</v>
+        <v>1385281</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H19" s="7">
+        <v>845</v>
+      </c>
+      <c r="I19" s="7">
+        <v>863330</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="H19" s="7">
-        <v>821</v>
-      </c>
-      <c r="I19" s="7">
-        <v>847575</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>2194</v>
+      </c>
+      <c r="N19" s="7">
+        <v>2248612</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1834</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1937967</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2085,49 +2079,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>2216</v>
+        <v>1864</v>
       </c>
       <c r="D20" s="7">
-        <v>2302022</v>
+        <v>1890220</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H20" s="7">
+        <v>2452</v>
+      </c>
+      <c r="I20" s="7">
+        <v>2515868</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>4316</v>
+      </c>
+      <c r="N20" s="7">
+        <v>4406087</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="H20" s="7">
-        <v>2512</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2691529</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="7">
-        <v>4728</v>
-      </c>
-      <c r="N20" s="7">
-        <v>4993550</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2136,10 +2130,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>3229</v>
+        <v>3213</v>
       </c>
       <c r="D21" s="7">
-        <v>3392414</v>
+        <v>3275501</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2151,10 +2145,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>3333</v>
+        <v>3297</v>
       </c>
       <c r="I21" s="7">
-        <v>3539104</v>
+        <v>3379198</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2166,10 +2160,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>6562</v>
+        <v>6510</v>
       </c>
       <c r="N21" s="7">
-        <v>6931517</v>
+        <v>6654699</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2183,7 +2177,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2204,7 +2198,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB9896F-CD9F-4C19-ADAB-4EB0CB70B3B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7FAFD9-7A05-4229-906E-78C43A4060FC}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2221,7 +2215,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2322,49 +2316,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D4" s="7">
-        <v>27771</v>
+        <v>51660</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H4" s="7">
+        <v>17</v>
+      </c>
+      <c r="I4" s="7">
+        <v>20018</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>69</v>
+      </c>
+      <c r="N4" s="7">
+        <v>71678</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="H4" s="7">
-        <v>29</v>
-      </c>
-      <c r="I4" s="7">
-        <v>18441</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="M4" s="7">
-        <v>59</v>
-      </c>
-      <c r="N4" s="7">
-        <v>46212</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2373,49 +2367,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="D5" s="7">
-        <v>73134</v>
+        <v>64105</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H5" s="7">
+        <v>82</v>
+      </c>
+      <c r="I5" s="7">
+        <v>91887</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>152</v>
+      </c>
+      <c r="N5" s="7">
+        <v>155992</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="H5" s="7">
-        <v>214</v>
-      </c>
-      <c r="I5" s="7">
-        <v>112292</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="M5" s="7">
-        <v>301</v>
-      </c>
-      <c r="N5" s="7">
-        <v>185426</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2424,10 +2418,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D6" s="7">
-        <v>100905</v>
+        <v>115765</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2439,10 +2433,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>99</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>111905</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2454,10 +2448,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>360</v>
+        <v>221</v>
       </c>
       <c r="N6" s="7">
-        <v>231638</v>
+        <v>227670</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2477,49 +2471,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>151</v>
+        <v>208</v>
       </c>
       <c r="D7" s="7">
-        <v>147424</v>
+        <v>217922</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H7" s="7">
+        <v>131</v>
+      </c>
+      <c r="I7" s="7">
+        <v>141823</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>339</v>
+      </c>
+      <c r="N7" s="7">
+        <v>359745</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="H7" s="7">
-        <v>140</v>
-      </c>
-      <c r="I7" s="7">
-        <v>101050</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="M7" s="7">
-        <v>291</v>
-      </c>
-      <c r="N7" s="7">
-        <v>248474</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2528,49 +2522,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>461</v>
+        <v>344</v>
       </c>
       <c r="D8" s="7">
-        <v>402399</v>
+        <v>369782</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H8" s="7">
+        <v>420</v>
+      </c>
+      <c r="I8" s="7">
+        <v>443322</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>764</v>
+      </c>
+      <c r="N8" s="7">
+        <v>813104</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="H8" s="7">
-        <v>856</v>
-      </c>
-      <c r="I8" s="7">
-        <v>491912</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="M8" s="7">
-        <v>1317</v>
-      </c>
-      <c r="N8" s="7">
-        <v>894311</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2579,10 +2573,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>612</v>
+        <v>552</v>
       </c>
       <c r="D9" s="7">
-        <v>549823</v>
+        <v>587704</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2594,10 +2588,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>996</v>
+        <v>551</v>
       </c>
       <c r="I9" s="7">
-        <v>592962</v>
+        <v>585145</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2609,10 +2603,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1608</v>
+        <v>1103</v>
       </c>
       <c r="N9" s="7">
-        <v>1142785</v>
+        <v>1172849</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2632,49 +2626,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>212</v>
+        <v>371</v>
       </c>
       <c r="D10" s="7">
-        <v>224129</v>
+        <v>405498</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H10" s="7">
+        <v>265</v>
+      </c>
+      <c r="I10" s="7">
+        <v>290347</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>636</v>
+      </c>
+      <c r="N10" s="7">
+        <v>695846</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="H10" s="7">
-        <v>232</v>
-      </c>
-      <c r="I10" s="7">
-        <v>174315</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="M10" s="7">
-        <v>444</v>
-      </c>
-      <c r="N10" s="7">
-        <v>398445</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2683,49 +2677,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>751</v>
+        <v>564</v>
       </c>
       <c r="D11" s="7">
-        <v>813928</v>
+        <v>611420</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H11" s="7">
+        <v>675</v>
+      </c>
+      <c r="I11" s="7">
+        <v>741837</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>1239</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1353256</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="H11" s="7">
-        <v>1284</v>
-      </c>
-      <c r="I11" s="7">
-        <v>885159</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="M11" s="7">
-        <v>2035</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1699087</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2734,10 +2728,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>963</v>
+        <v>935</v>
       </c>
       <c r="D12" s="7">
-        <v>1038057</v>
+        <v>1016918</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2749,10 +2743,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1516</v>
+        <v>940</v>
       </c>
       <c r="I12" s="7">
-        <v>1059474</v>
+        <v>1032184</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2764,10 +2758,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2479</v>
+        <v>1875</v>
       </c>
       <c r="N12" s="7">
-        <v>2097532</v>
+        <v>2049102</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2787,49 +2781,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>144</v>
+        <v>285</v>
       </c>
       <c r="D13" s="7">
-        <v>171747</v>
+        <v>314677</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H13" s="7">
+        <v>206</v>
+      </c>
+      <c r="I13" s="7">
+        <v>229896</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>491</v>
+      </c>
+      <c r="N13" s="7">
+        <v>544573</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="H13" s="7">
-        <v>192</v>
-      </c>
-      <c r="I13" s="7">
-        <v>148742</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="M13" s="7">
-        <v>336</v>
-      </c>
-      <c r="N13" s="7">
-        <v>320489</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2838,49 +2832,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>531</v>
+        <v>404</v>
       </c>
       <c r="D14" s="7">
-        <v>556865</v>
+        <v>442946</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="H14" s="7">
+        <v>498</v>
+      </c>
+      <c r="I14" s="7">
+        <v>546282</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="M14" s="7">
+        <v>902</v>
+      </c>
+      <c r="N14" s="7">
+        <v>989228</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="H14" s="7">
-        <v>855</v>
-      </c>
-      <c r="I14" s="7">
-        <v>725629</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="M14" s="7">
-        <v>1386</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1282494</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2889,10 +2883,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>675</v>
+        <v>689</v>
       </c>
       <c r="D15" s="7">
-        <v>728612</v>
+        <v>757623</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2904,10 +2898,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1047</v>
+        <v>704</v>
       </c>
       <c r="I15" s="7">
-        <v>874371</v>
+        <v>776178</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2919,10 +2913,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1722</v>
+        <v>1393</v>
       </c>
       <c r="N15" s="7">
-        <v>1602983</v>
+        <v>1533801</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2942,49 +2936,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>219</v>
+        <v>354</v>
       </c>
       <c r="D16" s="7">
-        <v>217016</v>
+        <v>365278</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="H16" s="7">
+        <v>279</v>
+      </c>
+      <c r="I16" s="7">
+        <v>294186</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="M16" s="7">
+        <v>633</v>
+      </c>
+      <c r="N16" s="7">
+        <v>659465</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="H16" s="7">
-        <v>256</v>
-      </c>
-      <c r="I16" s="7">
-        <v>190231</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="M16" s="7">
-        <v>475</v>
-      </c>
-      <c r="N16" s="7">
-        <v>407247</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2993,49 +2987,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>787</v>
+        <v>556</v>
       </c>
       <c r="D17" s="7">
-        <v>748387</v>
+        <v>582461</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="H17" s="7">
+        <v>723</v>
+      </c>
+      <c r="I17" s="7">
+        <v>756729</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>1279</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1339189</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="H17" s="7">
-        <v>1303</v>
-      </c>
-      <c r="I17" s="7">
-        <v>955963</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="M17" s="7">
-        <v>2090</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1704350</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3044,10 +3038,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1006</v>
+        <v>910</v>
       </c>
       <c r="D18" s="7">
-        <v>965403</v>
+        <v>947739</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3059,10 +3053,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1559</v>
+        <v>1002</v>
       </c>
       <c r="I18" s="7">
-        <v>1146194</v>
+        <v>1050915</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3074,10 +3068,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2565</v>
+        <v>1912</v>
       </c>
       <c r="N18" s="7">
-        <v>2111597</v>
+        <v>1998654</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3097,49 +3091,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>756</v>
+        <v>1270</v>
       </c>
       <c r="D19" s="7">
-        <v>788087</v>
+        <v>1355036</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H19" s="7">
+        <v>898</v>
+      </c>
+      <c r="I19" s="7">
+        <v>976270</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H19" s="7">
-        <v>849</v>
-      </c>
-      <c r="I19" s="7">
-        <v>632780</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>2168</v>
+      </c>
+      <c r="N19" s="7">
+        <v>2331306</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1605</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1420867</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3148,49 +3142,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>2617</v>
+        <v>1938</v>
       </c>
       <c r="D20" s="7">
-        <v>2594713</v>
+        <v>2070713</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H20" s="7">
+        <v>2398</v>
+      </c>
+      <c r="I20" s="7">
+        <v>2580057</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="H20" s="7">
-        <v>4512</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3170954</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>4336</v>
+      </c>
+      <c r="N20" s="7">
+        <v>4650770</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="M20" s="7">
-        <v>7129</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5765667</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3199,10 +3193,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>3373</v>
+        <v>3208</v>
       </c>
       <c r="D21" s="7">
-        <v>3382800</v>
+        <v>3425749</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -3214,10 +3208,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>5361</v>
+        <v>3296</v>
       </c>
       <c r="I21" s="7">
-        <v>3803734</v>
+        <v>3556327</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3229,10 +3223,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>8734</v>
+        <v>6504</v>
       </c>
       <c r="N21" s="7">
-        <v>7186534</v>
+        <v>6982076</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3246,7 +3240,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P23_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P23_R-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCB8BF32-636F-4B91-95CE-0DA7E9E40967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B65B389E-7704-4076-94C2-FB7F7EF1274F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{70A56600-4361-4AFA-9189-8FEF5F4DAD9E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CB388F71-8A3D-43C8-9093-55D9DFCD4A1D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="231">
   <si>
     <t>Población que fuma diariamente en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -75,28 +75,28 @@
     <t>40,37%</t>
   </si>
   <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
   </si>
   <si>
     <t>18,36%</t>
   </si>
   <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
   </si>
   <si>
     <t>29,49%</t>
   </si>
   <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,625 +105,631 @@
     <t>59,63%</t>
   </si>
   <si>
-    <t>50,39%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
   </si>
   <si>
     <t>81,64%</t>
   </si>
   <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
+    <t>74,39%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
   </si>
   <si>
     <t>70,51%</t>
   </si>
   <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>47,13%</t>
   </si>
   <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
   </si>
   <si>
     <t>24,51%</t>
   </si>
   <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
   </si>
   <si>
     <t>35,85%</t>
   </si>
   <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>49,02%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>61,2%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>64,98%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>67,61%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que fuma diariamente en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
     <t>32,97%</t>
   </si>
   <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>57,04%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
   </si>
   <si>
     <t>67,03%</t>
   </si>
   <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>57,71%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>61,23%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>59,66%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>72,95%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que fuma diariamente en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>63,83%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>63,95%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>73,42%</t>
+    <t>73,87%</t>
   </si>
   <si>
     <t>64,5%</t>
   </si>
   <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>67,22%</t>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
   </si>
   <si>
     <t>38,54%</t>
   </si>
   <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
   </si>
   <si>
     <t>27,99%</t>
   </si>
   <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
   </si>
   <si>
     <t>33,0%</t>
   </si>
   <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
   </si>
   <si>
     <t>61,46%</t>
   </si>
   <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
   </si>
   <si>
     <t>72,01%</t>
   </si>
   <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
+    <t>68,96%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
   </si>
   <si>
     <t>67,0%</t>
   </si>
   <si>
-    <t>65,04%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
   </si>
   <si>
     <t>39,55%</t>
   </si>
   <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
   </si>
   <si>
     <t>27,45%</t>
   </si>
   <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
   </si>
   <si>
     <t>33,39%</t>
   </si>
   <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
   </si>
   <si>
     <t>60,45%</t>
   </si>
   <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
+    <t>58,63%</t>
+  </si>
+  <si>
+    <t>62,15%</t>
   </si>
   <si>
     <t>72,55%</t>
   </si>
   <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>74,13%</t>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
   </si>
   <si>
     <t>66,61%</t>
   </si>
   <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>67,81%</t>
   </si>
 </sst>
 </file>
@@ -1135,7 +1141,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F0567B-5A93-4282-89AF-C343B423CAA2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D7DFD0A-E91F-4A25-874C-14F51B1BD1ED}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2198,7 +2204,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7FAFD9-7A05-4229-906E-78C43A4060FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F54F727-2D4B-4564-B9E5-65AE13B5103C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2787,13 +2793,13 @@
         <v>314677</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>72</v>
+        <v>177</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H13" s="7">
         <v>206</v>
@@ -2802,13 +2808,13 @@
         <v>229896</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M13" s="7">
         <v>491</v>
@@ -2817,13 +2823,13 @@
         <v>544573</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2838,13 +2844,13 @@
         <v>442946</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>80</v>
+        <v>186</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H14" s="7">
         <v>498</v>
@@ -2853,13 +2859,13 @@
         <v>546282</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M14" s="7">
         <v>902</v>
@@ -2868,13 +2874,13 @@
         <v>989228</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2942,13 +2948,13 @@
         <v>365278</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H16" s="7">
         <v>279</v>
@@ -2957,13 +2963,13 @@
         <v>294186</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M16" s="7">
         <v>633</v>
@@ -2972,13 +2978,13 @@
         <v>659465</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2993,13 +2999,13 @@
         <v>582461</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H17" s="7">
         <v>723</v>
@@ -3008,13 +3014,13 @@
         <v>756729</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M17" s="7">
         <v>1279</v>
@@ -3023,13 +3029,13 @@
         <v>1339189</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,13 +3103,13 @@
         <v>1355036</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H19" s="7">
         <v>898</v>
@@ -3112,13 +3118,13 @@
         <v>976270</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M19" s="7">
         <v>2168</v>
@@ -3127,13 +3133,13 @@
         <v>2331306</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3148,13 +3154,13 @@
         <v>2070713</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H20" s="7">
         <v>2398</v>
@@ -3163,13 +3169,13 @@
         <v>2580057</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M20" s="7">
         <v>4336</v>
@@ -3178,13 +3184,13 @@
         <v>4650770</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P23_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P23_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B65B389E-7704-4076-94C2-FB7F7EF1274F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{40AABA82-DD11-4FB1-8D7A-1997158EB34F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CB388F71-8A3D-43C8-9093-55D9DFCD4A1D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0E210671-3189-4C2E-88C8-78683AD23A23}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="227">
   <si>
     <t>Población que fuma diariamente en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>40,37%</t>
   </si>
   <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
   </si>
   <si>
     <t>18,36%</t>
   </si>
   <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
   </si>
   <si>
     <t>29,49%</t>
   </si>
   <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>59,63%</t>
   </si>
   <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
   </si>
   <si>
     <t>81,64%</t>
   </si>
   <si>
-    <t>74,39%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
   </si>
   <si>
     <t>70,51%</t>
   </si>
   <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,544 +138,532 @@
     <t>47,13%</t>
   </si>
   <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
   </si>
   <si>
     <t>24,51%</t>
   </si>
   <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
   </si>
   <si>
     <t>35,85%</t>
   </si>
   <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>61,43%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>71,45%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>59,36%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que fuma diariamente en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>62,41%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
     <t>33,07%</t>
   </si>
   <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
+  </si>
+  <si>
+    <t>62,24%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>61,84%</t>
   </si>
   <si>
     <t>66,93%</t>
   </si>
   <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
   </si>
   <si>
     <t>35,02%</t>
   </si>
   <si>
-    <t>57,71%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>73,49%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
   </si>
   <si>
     <t>64,98%</t>
   </si>
   <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>67,61%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>61,91%</t>
-  </si>
-  <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>43,96%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>56,04%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que fuma diariamente en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>67,1%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>66,37%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>63,12%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>61,89%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>58,0%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>68,96%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
+    <t>69,26%</t>
   </si>
   <si>
     <t>39,55%</t>
@@ -684,31 +672,31 @@
     <t>37,85%</t>
   </si>
   <si>
-    <t>41,37%</t>
+    <t>41,3%</t>
   </si>
   <si>
     <t>27,45%</t>
   </si>
   <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
   </si>
   <si>
     <t>33,39%</t>
   </si>
   <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
   </si>
   <si>
     <t>60,45%</t>
   </si>
   <si>
-    <t>58,63%</t>
+    <t>58,7%</t>
   </si>
   <si>
     <t>62,15%</t>
@@ -717,19 +705,19 @@
     <t>72,55%</t>
   </si>
   <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
   </si>
   <si>
     <t>66,61%</t>
   </si>
   <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
   </si>
 </sst>
 </file>
@@ -1141,7 +1129,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D7DFD0A-E91F-4A25-874C-14F51B1BD1ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B754FA3-F836-491C-AAAC-53F44AEDEF40}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1766,7 +1754,7 @@
         <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1781,13 +1769,13 @@
         <v>424534</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>520</v>
@@ -1796,13 +1784,13 @@
         <v>513840</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>923</v>
@@ -1811,13 +1799,13 @@
         <v>938374</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1873,7 +1861,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1885,13 +1873,13 @@
         <v>405745</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>292</v>
@@ -1900,13 +1888,13 @@
         <v>304394</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>715</v>
@@ -1918,10 +1906,10 @@
         <v>38</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1936,13 +1924,13 @@
         <v>536477</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>705</v>
@@ -1951,13 +1939,13 @@
         <v>734218</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>1276</v>
@@ -1969,10 +1957,10 @@
         <v>47</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2043,10 +2031,10 @@
         <v>51</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H19" s="7">
         <v>845</v>
@@ -2055,28 +2043,28 @@
         <v>863330</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>2194</v>
       </c>
       <c r="N19" s="7">
-        <v>2248612</v>
+        <v>2248611</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2094,10 +2082,10 @@
         <v>60</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H20" s="7">
         <v>2452</v>
@@ -2106,13 +2094,13 @@
         <v>2515868</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M20" s="7">
         <v>4316</v>
@@ -2121,13 +2109,13 @@
         <v>4406087</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2169,7 +2157,7 @@
         <v>6510</v>
       </c>
       <c r="N21" s="7">
-        <v>6654699</v>
+        <v>6654698</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2183,7 +2171,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2204,7 +2192,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F54F727-2D4B-4564-B9E5-65AE13B5103C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5AF91E-B197-4405-BDA0-EC1DC866C787}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2221,7 +2209,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2328,13 +2316,13 @@
         <v>51660</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H4" s="7">
         <v>17</v>
@@ -2343,13 +2331,13 @@
         <v>20018</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M4" s="7">
         <v>69</v>
@@ -2358,13 +2346,13 @@
         <v>71678</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2379,13 +2367,13 @@
         <v>64105</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H5" s="7">
         <v>82</v>
@@ -2394,13 +2382,13 @@
         <v>91887</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M5" s="7">
         <v>152</v>
@@ -2409,13 +2397,13 @@
         <v>155992</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2483,13 +2471,13 @@
         <v>217922</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H7" s="7">
         <v>131</v>
@@ -2498,13 +2486,13 @@
         <v>141823</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M7" s="7">
         <v>339</v>
@@ -2513,13 +2501,13 @@
         <v>359745</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2534,13 +2522,13 @@
         <v>369782</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H8" s="7">
         <v>420</v>
@@ -2549,13 +2537,13 @@
         <v>443322</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M8" s="7">
         <v>764</v>
@@ -2564,13 +2552,13 @@
         <v>813104</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2638,13 +2626,13 @@
         <v>405498</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H10" s="7">
         <v>265</v>
@@ -2653,13 +2641,13 @@
         <v>290347</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M10" s="7">
         <v>636</v>
@@ -2668,13 +2656,13 @@
         <v>695846</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2689,13 +2677,13 @@
         <v>611420</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H11" s="7">
         <v>675</v>
@@ -2704,13 +2692,13 @@
         <v>741837</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M11" s="7">
         <v>1239</v>
@@ -2719,13 +2707,13 @@
         <v>1353256</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2793,13 +2781,13 @@
         <v>314677</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H13" s="7">
         <v>206</v>
@@ -2808,13 +2796,13 @@
         <v>229896</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M13" s="7">
         <v>491</v>
@@ -2823,13 +2811,13 @@
         <v>544573</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2844,13 +2832,13 @@
         <v>442946</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H14" s="7">
         <v>498</v>
@@ -2859,13 +2847,13 @@
         <v>546282</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M14" s="7">
         <v>902</v>
@@ -2874,13 +2862,13 @@
         <v>989228</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2936,7 +2924,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2948,13 +2936,13 @@
         <v>365278</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>196</v>
+        <v>122</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H16" s="7">
         <v>279</v>
@@ -2963,13 +2951,13 @@
         <v>294186</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="M16" s="7">
         <v>633</v>
@@ -2978,13 +2966,13 @@
         <v>659465</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2999,13 +2987,13 @@
         <v>582461</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>206</v>
+        <v>132</v>
       </c>
       <c r="H17" s="7">
         <v>723</v>
@@ -3014,13 +3002,13 @@
         <v>756729</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="M17" s="7">
         <v>1279</v>
@@ -3029,13 +3017,13 @@
         <v>1339189</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3103,13 +3091,13 @@
         <v>1355036</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="H19" s="7">
         <v>898</v>
@@ -3118,13 +3106,13 @@
         <v>976270</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="M19" s="7">
         <v>2168</v>
@@ -3133,13 +3121,13 @@
         <v>2331306</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3154,13 +3142,13 @@
         <v>2070713</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H20" s="7">
         <v>2398</v>
@@ -3169,13 +3157,13 @@
         <v>2580057</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="M20" s="7">
         <v>4336</v>
@@ -3184,13 +3172,13 @@
         <v>4650770</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3246,7 +3234,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P23_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P23_R-Habitat-trans_orig.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40AABA82-DD11-4FB1-8D7A-1997158EB34F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E96D0850-605A-4EF2-A14F-3B6C3EB9E96A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0E210671-3189-4C2E-88C8-78683AD23A23}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{46EFB7CF-6F6F-4F5E-9AA0-30A4DC503AC1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,9 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="227">
-  <si>
-    <t>Población que fuma diariamente en 2007 (Tasa respuesta: 99,98%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="281">
+  <si>
+    <t>Población que fuma diariamente (Tabaco/Marihuana) (2007/2012/2016) en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -66,282 +67,231 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>49,6%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>50,1%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>59,63%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>70,51%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
+    <t>53,99%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>65,2%</t>
+  </si>
+  <si>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>71,45%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
   </si>
   <si>
     <t>35,85%</t>
   </si>
   <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
   </si>
   <si>
     <t>64,15%</t>
   </si>
   <si>
-    <t>61,43%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>57,71%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>66,42%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>71,41%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
     <t>62,03%</t>
   </si>
   <si>
@@ -399,325 +349,538 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que fuma diariamente en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>44,63%</t>
+    <t>Población que fuma diariamente (Tabaco/Marihuana) (2007/2012/2016) en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
+  </si>
+  <si>
+    <t>62,24%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>61,84%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
   </si>
   <si>
     <t>35,37%</t>
   </si>
   <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>64,98%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>62,15%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>Población que fuma diariamente (Tabaco/Marihuana) (2007/2012/2016) en 2016 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>66,66%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>63,76%</t>
+  </si>
+  <si>
+    <t>69,61%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>71,2%</t>
+  </si>
+  <si>
+    <t>70,4%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
+  </si>
+  <si>
+    <t>74,24%</t>
+  </si>
+  <si>
+    <t>65,04%</t>
+  </si>
+  <si>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
   </si>
   <si>
     <t>25,45%</t>
   </si>
   <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>62,41%</t>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>72,25%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
+  </si>
+  <si>
+    <t>70,54%</t>
   </si>
   <si>
     <t>74,55%</t>
   </si>
   <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
-  </si>
-  <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
-  </si>
-  <si>
-    <t>62,24%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>66,37%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>64,98%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>70,93%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
   </si>
 </sst>
 </file>
@@ -1129,8 +1292,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B754FA3-F836-491C-AAAC-53F44AEDEF40}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B185B4-2E0D-47D5-B162-BEFD61D4F258}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1247,10 +1410,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>43</v>
+        <v>310</v>
       </c>
       <c r="D4" s="7">
-        <v>46571</v>
+        <v>319281</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1262,10 +1425,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>23</v>
+        <v>162</v>
       </c>
       <c r="I4" s="7">
-        <v>20698</v>
+        <v>161799</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1277,10 +1440,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>66</v>
+        <v>472</v>
       </c>
       <c r="N4" s="7">
-        <v>67269</v>
+        <v>481080</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1298,10 +1461,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>62</v>
+        <v>373</v>
       </c>
       <c r="D5" s="7">
-        <v>68787</v>
+        <v>374731</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1313,10 +1476,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>105</v>
+        <v>534</v>
       </c>
       <c r="I5" s="7">
-        <v>92057</v>
+        <v>526552</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1328,10 +1491,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>167</v>
+        <v>907</v>
       </c>
       <c r="N5" s="7">
-        <v>160844</v>
+        <v>901283</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1349,10 +1512,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1364,10 +1527,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1379,10 +1542,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>233</v>
+        <v>1379</v>
       </c>
       <c r="N6" s="7">
-        <v>228113</v>
+        <v>1382363</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1402,10 +1565,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>267</v>
+        <v>378</v>
       </c>
       <c r="D7" s="7">
-        <v>272710</v>
+        <v>406281</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1417,10 +1580,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>139</v>
+        <v>215</v>
       </c>
       <c r="I7" s="7">
-        <v>141101</v>
+        <v>227136</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1432,10 +1595,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>406</v>
+        <v>593</v>
       </c>
       <c r="N7" s="7">
-        <v>413811</v>
+        <v>633416</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1453,10 +1616,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>311</v>
+        <v>517</v>
       </c>
       <c r="D8" s="7">
-        <v>305944</v>
+        <v>554477</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1468,10 +1631,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>429</v>
+        <v>693</v>
       </c>
       <c r="I8" s="7">
-        <v>434495</v>
+        <v>741257</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1483,10 +1646,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>740</v>
+        <v>1210</v>
       </c>
       <c r="N8" s="7">
-        <v>740439</v>
+        <v>1295735</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1504,10 +1667,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>578</v>
+        <v>895</v>
       </c>
       <c r="D9" s="7">
-        <v>578654</v>
+        <v>960758</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1519,10 +1682,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I9" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1534,10 +1697,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1146</v>
+        <v>1803</v>
       </c>
       <c r="N9" s="7">
-        <v>1154250</v>
+        <v>1929151</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1557,10 +1720,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>378</v>
+        <v>238</v>
       </c>
       <c r="D10" s="7">
-        <v>406281</v>
+        <v>253975</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1572,10 +1735,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="I10" s="7">
-        <v>227136</v>
+        <v>170001</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1587,10 +1750,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>593</v>
+        <v>414</v>
       </c>
       <c r="N10" s="7">
-        <v>633416</v>
+        <v>423976</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1599,7 +1762,7 @@
         <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1608,49 +1771,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>517</v>
+        <v>403</v>
       </c>
       <c r="D11" s="7">
-        <v>554477</v>
+        <v>424534</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>520</v>
+      </c>
+      <c r="I11" s="7">
+        <v>513840</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="7">
-        <v>693</v>
-      </c>
-      <c r="I11" s="7">
-        <v>741257</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>923</v>
+      </c>
+      <c r="N11" s="7">
+        <v>938374</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="M11" s="7">
-        <v>1210</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1295735</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1659,10 +1822,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>895</v>
+        <v>641</v>
       </c>
       <c r="D12" s="7">
-        <v>960758</v>
+        <v>678509</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1674,10 +1837,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1689,10 +1852,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1803</v>
+        <v>1337</v>
       </c>
       <c r="N12" s="7">
-        <v>1929151</v>
+        <v>1362350</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1706,55 +1869,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>238</v>
+        <v>423</v>
       </c>
       <c r="D13" s="7">
-        <v>253975</v>
+        <v>405745</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>292</v>
+      </c>
+      <c r="I13" s="7">
+        <v>304394</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="7">
-        <v>176</v>
-      </c>
-      <c r="I13" s="7">
-        <v>170001</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>715</v>
+      </c>
+      <c r="N13" s="7">
+        <v>710139</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="M13" s="7">
-        <v>414</v>
-      </c>
-      <c r="N13" s="7">
-        <v>423976</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1763,46 +1926,46 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>403</v>
+        <v>571</v>
       </c>
       <c r="D14" s="7">
-        <v>424534</v>
+        <v>536477</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>705</v>
+      </c>
+      <c r="I14" s="7">
+        <v>734218</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H14" s="7">
-        <v>520</v>
-      </c>
-      <c r="I14" s="7">
-        <v>513840</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>1276</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1270695</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="M14" s="7">
-        <v>923</v>
-      </c>
-      <c r="N14" s="7">
-        <v>938374</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>85</v>
@@ -1814,10 +1977,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="D15" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1829,10 +1992,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I15" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1844,10 +2007,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1337</v>
+        <v>1991</v>
       </c>
       <c r="N15" s="7">
-        <v>1362350</v>
+        <v>1980834</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1861,55 +2024,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>423</v>
+        <v>1349</v>
       </c>
       <c r="D16" s="7">
-        <v>405745</v>
+        <v>1385281</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>845</v>
+      </c>
+      <c r="I16" s="7">
+        <v>863330</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="H16" s="7">
-        <v>292</v>
-      </c>
-      <c r="I16" s="7">
-        <v>304394</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>2194</v>
+      </c>
+      <c r="N16" s="7">
+        <v>2248611</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="M16" s="7">
-        <v>715</v>
-      </c>
-      <c r="N16" s="7">
-        <v>710139</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1918,49 +2081,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>571</v>
+        <v>1864</v>
       </c>
       <c r="D17" s="7">
-        <v>536477</v>
+        <v>1890220</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>2452</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2515867</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="H17" s="7">
-        <v>705</v>
-      </c>
-      <c r="I17" s="7">
-        <v>734218</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>4316</v>
+      </c>
+      <c r="N17" s="7">
+        <v>4406087</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="M17" s="7">
-        <v>1276</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1270695</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1969,10 +2132,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>994</v>
+        <v>3213</v>
       </c>
       <c r="D18" s="7">
-        <v>942222</v>
+        <v>3275501</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1984,10 +2147,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I18" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1999,10 +2162,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1991</v>
+        <v>6510</v>
       </c>
       <c r="N18" s="7">
-        <v>1980834</v>
+        <v>6654698</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2015,171 +2178,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1349</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1385281</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="H19" s="7">
-        <v>845</v>
-      </c>
-      <c r="I19" s="7">
-        <v>863330</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="M19" s="7">
-        <v>2194</v>
-      </c>
-      <c r="N19" s="7">
-        <v>2248611</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1864</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1890220</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2452</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2515868</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="M20" s="7">
-        <v>4316</v>
-      </c>
-      <c r="N20" s="7">
-        <v>4406087</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3213</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3275501</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6510</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6654698</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2192,8 +2199,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5AF91E-B197-4405-BDA0-EC1DC866C787}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4B3843C-CA2B-4497-AD5F-D25ACD74775E}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2209,7 +2216,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2310,49 +2317,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>52</v>
+        <v>260</v>
       </c>
       <c r="D4" s="7">
-        <v>51660</v>
+        <v>269583</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="H4" s="7">
-        <v>17</v>
+        <v>148</v>
       </c>
       <c r="I4" s="7">
-        <v>20018</v>
+        <v>161840</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="M4" s="7">
-        <v>69</v>
+        <v>408</v>
       </c>
       <c r="N4" s="7">
-        <v>71678</v>
+        <v>431423</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2361,49 +2368,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>70</v>
+        <v>414</v>
       </c>
       <c r="D5" s="7">
-        <v>64105</v>
+        <v>433886</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="H5" s="7">
-        <v>82</v>
+        <v>502</v>
       </c>
       <c r="I5" s="7">
-        <v>91887</v>
+        <v>535210</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="M5" s="7">
-        <v>152</v>
+        <v>916</v>
       </c>
       <c r="N5" s="7">
-        <v>155992</v>
+        <v>969096</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2412,10 +2419,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D6" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2427,10 +2434,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2442,10 +2449,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N6" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2465,49 +2472,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>208</v>
+        <v>371</v>
       </c>
       <c r="D7" s="7">
-        <v>217922</v>
+        <v>405498</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="H7" s="7">
-        <v>131</v>
+        <v>265</v>
       </c>
       <c r="I7" s="7">
-        <v>141823</v>
+        <v>290347</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="M7" s="7">
-        <v>339</v>
+        <v>636</v>
       </c>
       <c r="N7" s="7">
-        <v>359745</v>
+        <v>695846</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2516,49 +2523,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>344</v>
+        <v>564</v>
       </c>
       <c r="D8" s="7">
-        <v>369782</v>
+        <v>611420</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="H8" s="7">
-        <v>420</v>
+        <v>675</v>
       </c>
       <c r="I8" s="7">
-        <v>443322</v>
+        <v>741837</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="M8" s="7">
-        <v>764</v>
+        <v>1239</v>
       </c>
       <c r="N8" s="7">
-        <v>813104</v>
+        <v>1353256</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2567,10 +2574,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>552</v>
+        <v>935</v>
       </c>
       <c r="D9" s="7">
-        <v>587704</v>
+        <v>1016918</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2582,10 +2589,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>940</v>
       </c>
       <c r="I9" s="7">
-        <v>585145</v>
+        <v>1032184</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2597,10 +2604,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1103</v>
+        <v>1875</v>
       </c>
       <c r="N9" s="7">
-        <v>1172849</v>
+        <v>2049102</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2620,49 +2627,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>371</v>
+        <v>285</v>
       </c>
       <c r="D10" s="7">
-        <v>405498</v>
+        <v>314677</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="H10" s="7">
-        <v>265</v>
+        <v>206</v>
       </c>
       <c r="I10" s="7">
-        <v>290347</v>
+        <v>229896</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="M10" s="7">
-        <v>636</v>
+        <v>491</v>
       </c>
       <c r="N10" s="7">
-        <v>695846</v>
+        <v>544573</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2671,49 +2678,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>564</v>
+        <v>404</v>
       </c>
       <c r="D11" s="7">
-        <v>611420</v>
+        <v>442946</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="H11" s="7">
-        <v>675</v>
+        <v>498</v>
       </c>
       <c r="I11" s="7">
-        <v>741837</v>
+        <v>546282</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="M11" s="7">
-        <v>1239</v>
+        <v>902</v>
       </c>
       <c r="N11" s="7">
-        <v>1353256</v>
+        <v>989228</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2722,10 +2729,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>935</v>
+        <v>689</v>
       </c>
       <c r="D12" s="7">
-        <v>1016918</v>
+        <v>757623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2737,10 +2744,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>940</v>
+        <v>704</v>
       </c>
       <c r="I12" s="7">
-        <v>1032184</v>
+        <v>776178</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2752,10 +2759,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1875</v>
+        <v>1393</v>
       </c>
       <c r="N12" s="7">
-        <v>2049102</v>
+        <v>1533801</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2769,55 +2776,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>285</v>
+        <v>354</v>
       </c>
       <c r="D13" s="7">
-        <v>314677</v>
+        <v>365278</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="H13" s="7">
-        <v>206</v>
+        <v>279</v>
       </c>
       <c r="I13" s="7">
-        <v>229896</v>
+        <v>294186</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="M13" s="7">
-        <v>491</v>
+        <v>633</v>
       </c>
       <c r="N13" s="7">
-        <v>544573</v>
+        <v>659465</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2826,49 +2833,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>404</v>
+        <v>556</v>
       </c>
       <c r="D14" s="7">
-        <v>442946</v>
+        <v>582461</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="H14" s="7">
-        <v>498</v>
+        <v>723</v>
       </c>
       <c r="I14" s="7">
-        <v>546282</v>
+        <v>756729</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="M14" s="7">
-        <v>902</v>
+        <v>1279</v>
       </c>
       <c r="N14" s="7">
-        <v>989228</v>
+        <v>1339189</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2877,10 +2884,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>689</v>
+        <v>910</v>
       </c>
       <c r="D15" s="7">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2892,10 +2899,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>704</v>
+        <v>1002</v>
       </c>
       <c r="I15" s="7">
-        <v>776178</v>
+        <v>1050915</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2907,10 +2914,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1393</v>
+        <v>1912</v>
       </c>
       <c r="N15" s="7">
-        <v>1533801</v>
+        <v>1998654</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2924,55 +2931,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>354</v>
+        <v>1270</v>
       </c>
       <c r="D16" s="7">
-        <v>365278</v>
+        <v>1355036</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>122</v>
+        <v>175</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="H16" s="7">
-        <v>279</v>
+        <v>898</v>
       </c>
       <c r="I16" s="7">
-        <v>294186</v>
+        <v>976270</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="M16" s="7">
-        <v>633</v>
+        <v>2168</v>
       </c>
       <c r="N16" s="7">
-        <v>659465</v>
+        <v>2331306</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2981,49 +2988,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>556</v>
+        <v>1938</v>
       </c>
       <c r="D17" s="7">
-        <v>582461</v>
+        <v>2070713</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>132</v>
+        <v>185</v>
       </c>
       <c r="H17" s="7">
-        <v>723</v>
+        <v>2398</v>
       </c>
       <c r="I17" s="7">
-        <v>756729</v>
+        <v>2580057</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="M17" s="7">
-        <v>1279</v>
+        <v>4336</v>
       </c>
       <c r="N17" s="7">
-        <v>1339189</v>
+        <v>4650770</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3032,10 +3039,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>910</v>
+        <v>3208</v>
       </c>
       <c r="D18" s="7">
-        <v>947739</v>
+        <v>3425749</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3047,10 +3054,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1002</v>
+        <v>3296</v>
       </c>
       <c r="I18" s="7">
-        <v>1050915</v>
+        <v>3556327</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3062,10 +3069,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1912</v>
+        <v>6504</v>
       </c>
       <c r="N18" s="7">
-        <v>1998654</v>
+        <v>6982076</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3078,171 +3085,922 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1270</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1355036</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="H19" s="7">
-        <v>898</v>
-      </c>
-      <c r="I19" s="7">
-        <v>976270</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="M19" s="7">
-        <v>2168</v>
-      </c>
-      <c r="N19" s="7">
-        <v>2331306</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1938</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2070713</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2398</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2580057</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="M20" s="7">
-        <v>4336</v>
-      </c>
-      <c r="N20" s="7">
-        <v>4650770</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3208</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3425749</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3296</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3556327</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6504</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6982076</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4A05490-9C62-49B0-977A-9F76A84E10EF}">
+  <dimension ref="A1:Q19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>237</v>
+      </c>
+      <c r="D4" s="7">
+        <v>250552</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="H4" s="7">
+        <v>169</v>
+      </c>
+      <c r="I4" s="7">
+        <v>169362</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="M4" s="7">
+        <v>406</v>
+      </c>
+      <c r="N4" s="7">
+        <v>419914</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>415</v>
+      </c>
+      <c r="D5" s="7">
+        <v>424248</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="H5" s="7">
+        <v>496</v>
+      </c>
+      <c r="I5" s="7">
+        <v>502368</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="M5" s="7">
+        <v>911</v>
+      </c>
+      <c r="N5" s="7">
+        <v>926616</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7">
+        <v>652</v>
+      </c>
+      <c r="D6" s="7">
+        <v>674800</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
+        <v>665</v>
+      </c>
+      <c r="I6" s="7">
+        <v>671730</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="7">
+        <v>1317</v>
+      </c>
+      <c r="N6" s="7">
+        <v>1346530</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7">
+        <v>308</v>
+      </c>
+      <c r="D7" s="7">
+        <v>339788</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H7" s="7">
+        <v>261</v>
+      </c>
+      <c r="I7" s="7">
+        <v>270928</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="M7" s="7">
+        <v>569</v>
+      </c>
+      <c r="N7" s="7">
+        <v>610716</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7">
+        <v>642</v>
+      </c>
+      <c r="D8" s="7">
+        <v>681571</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="H8" s="7">
+        <v>715</v>
+      </c>
+      <c r="I8" s="7">
+        <v>771057</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="M8" s="7">
+        <v>1357</v>
+      </c>
+      <c r="N8" s="7">
+        <v>1452628</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7">
+        <v>950</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1021359</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
+        <v>976</v>
+      </c>
+      <c r="I9" s="7">
+        <v>1041985</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="7">
+        <v>1926</v>
+      </c>
+      <c r="N9" s="7">
+        <v>2063344</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7">
+        <v>279</v>
+      </c>
+      <c r="D10" s="7">
+        <v>312102</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="H10" s="7">
+        <v>219</v>
+      </c>
+      <c r="I10" s="7">
+        <v>226802</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="M10" s="7">
+        <v>498</v>
+      </c>
+      <c r="N10" s="7">
+        <v>538903</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7">
+        <v>416</v>
+      </c>
+      <c r="D11" s="7">
+        <v>446586</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H11" s="7">
+        <v>515</v>
+      </c>
+      <c r="I11" s="7">
+        <v>556093</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="M11" s="7">
+        <v>931</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1002679</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="7">
+        <v>695</v>
+      </c>
+      <c r="D12" s="7">
+        <v>758688</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
+        <v>734</v>
+      </c>
+      <c r="I12" s="7">
+        <v>782895</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="7">
+        <v>1429</v>
+      </c>
+      <c r="N12" s="7">
+        <v>1541582</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7">
+        <v>283</v>
+      </c>
+      <c r="D13" s="7">
+        <v>287292</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H13" s="7">
+        <v>246</v>
+      </c>
+      <c r="I13" s="7">
+        <v>257384</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="M13" s="7">
+        <v>529</v>
+      </c>
+      <c r="N13" s="7">
+        <v>544676</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="7">
+        <v>649</v>
+      </c>
+      <c r="D14" s="7">
+        <v>650275</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H14" s="7">
+        <v>712</v>
+      </c>
+      <c r="I14" s="7">
+        <v>785110</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="M14" s="7">
+        <v>1361</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1435385</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
+        <v>932</v>
+      </c>
+      <c r="D15" s="7">
+        <v>937567</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>958</v>
+      </c>
+      <c r="I15" s="7">
+        <v>1042494</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>1890</v>
+      </c>
+      <c r="N15" s="7">
+        <v>1980061</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1107</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1189733</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H16" s="7">
+        <v>895</v>
+      </c>
+      <c r="I16" s="7">
+        <v>924476</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="M16" s="7">
+        <v>2002</v>
+      </c>
+      <c r="N16" s="7">
+        <v>2114209</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>2122</v>
+      </c>
+      <c r="D17" s="7">
+        <v>2202681</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="H17" s="7">
+        <v>2438</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2614627</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="M17" s="7">
+        <v>4560</v>
+      </c>
+      <c r="N17" s="7">
+        <v>4817308</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>3229</v>
+      </c>
+      <c r="D18" s="7">
+        <v>3392414</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
+        <v>3333</v>
+      </c>
+      <c r="I18" s="7">
+        <v>3539103</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
+        <v>6562</v>
+      </c>
+      <c r="N18" s="7">
+        <v>6931517</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
